--- a/10-conditionally-formatted-plots/10-conditionally-format-plots-solution.xlsx
+++ b/10-conditionally-formatted-plots/10-conditionally-format-plots-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\10-conditionally-formatted-plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059CC264-7529-46E0-8514-C42763ABEC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E5364-5759-4395-A1FC-9B0014BFA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,11 +47,25 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
         </ext>
       </extLst>
     </bk>
@@ -61,9 +75,15 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -90,12 +110,24 @@
     <pythonScript>
       <code>penguins_df = xl(%P2%, headers=True)</code>
     </pythonScript>
+    <pythonScript>
+      <code>sns.scatterplot(data=penguins_df, x='flipper_length_mm', y='body_mass_g', 
+                hue='species', alpha=.7)</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Calculate mean body mass per island
+mean_mass = penguins_df.groupby('island')['body_mass_g'].mean().reset_index()
+mean_mass = mean_mass.sort_values('body_mass_g', ascending=False)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.barplot(x='island', y='body_mass_g', palette='Blues_r', data=mean_mass)</code>
+    </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="17">
   <si>
     <t>species</t>
   </si>
@@ -146,9 +178,6 @@
   </si>
   <si>
     <t>https://x.com/i/grok/share/jExqmBtQkNcfKWMbbRBkUzdD9</t>
-  </si>
-  <si>
-    <t>This one will be a little trickier</t>
   </si>
 </sst>
 </file>
@@ -692,6 +721,109 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>490924</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25ACD9C-E752-DEFD-0A64-5BB01827C6B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="penguins!I4"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10552339" y="721179"/>
+          <a:ext cx="6151496" cy="4592410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251732</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85192</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FCF40D-FFC8-C252-0B7D-7962FAE2F519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="penguins!I29"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10994572" y="8307161"/>
+          <a:ext cx="5303531" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -836,7 +968,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <rv s="0">
     <fb>0</fb>
     <v>2</v>
@@ -859,11 +991,21 @@
     <v>2</v>
     <v>3</v>
   </rv>
+  <rv s="4">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="4">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
   </s>
@@ -881,6 +1023,11 @@
     <k n="Python_str" t="s"/>
     <k n="preview" t="r"/>
     <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
@@ -949,6 +1096,13 @@
     </rSty>
   </richStyles>
 </richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1284,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:L345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -1298,7 +1452,7 @@
     <col min="6" max="6" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,11 +1474,15 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="e" cm="1" vm="1">
+        <f t="array" ref="I1">_xlfn._xlws.PY(0,1,penguins[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1346,12 +1504,8 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="e" cm="1" vm="1">
-        <f t="array" ref="I2">_xlfn._xlws.PY(0,1,penguins[#All])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.65">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1396,11 +1550,12 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="I4" t="e" cm="1" vm="2">
+        <f t="array" ref="I4">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1756,7 +1911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +1957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1824,8 +1979,15 @@
       <c r="G23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="I23" t="str" cm="1">
+        <f t="array" ref="I23:J26">_xlfn._xlws.PY(2,0)</f>
+        <v>island</v>
+      </c>
+      <c r="J23" t="str">
+        <v>body_mass_g</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1847,8 +2009,14 @@
       <c r="G24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="I24" t="str">
+        <v>Biscoe</v>
+      </c>
+      <c r="J24">
+        <v>4716.0179640718561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1870,8 +2038,14 @@
       <c r="G25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="I25" t="str">
+        <v>Dream</v>
+      </c>
+      <c r="J25">
+        <v>3712.9032258064517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1893,8 +2067,14 @@
       <c r="G26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="I26" t="str">
+        <v>Torgersen</v>
+      </c>
+      <c r="J26">
+        <v>3706.372549019608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1917,7 +2097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1962,8 +2142,12 @@
       <c r="G29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="I29" t="e" cm="1" vm="3">
+        <f t="array" ref="I29">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +2170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -9221,8 +9405,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/10-conditionally-formatted-plots/10-conditionally-format-plots-solution.xlsx
+++ b/10-conditionally-formatted-plots/10-conditionally-format-plots-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\10-conditionally-formatted-plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288E5364-5759-4395-A1FC-9B0014BFA283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A904D-D924-4AE9-82AF-B5CAF832FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -69,13 +69,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="4">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -84,6 +91,9 @@
     </bk>
     <bk>
       <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -121,6 +131,17 @@
     </pythonScript>
     <pythonScript>
       <code>sns.barplot(x='island', y='body_mass_g', palette='Blues_r', data=mean_mass)</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve"># Normalize values
+norm = plt.Normalize(mean_mass['body_mass_g'].min(), mean_mass['body_mass_g'].max())
+# Create a custom palette starting from a darker shade
+cmap = sns.blend_palette(['#4682B4', '#00008B'], as_cmap=True)  # Medium to dark blue
+# Map normalized values to colors
+colors = [cmap(norm(value)) for value in mean_mass['body_mass_g']]
+# Plot
+sns.barplot(data=mean_mass, x='island', y='body_mass_g', palette=colors)
+</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -821,6 +842,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>751942</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243D9F8-6DF6-C6F2-D379-475785C4B492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="penguins!I48"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10749644" y="12634233"/>
+          <a:ext cx="5303531" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -968,7 +1038,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <rv s="0">
     <fb>0</fb>
     <v>2</v>
@@ -998,6 +1068,11 @@
   </rv>
   <rv s="4">
     <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="4">
+    <v>2</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -1102,6 +1177,7 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
 </richValueRels>
 </file>
 
@@ -1440,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -2216,7 +2292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2285,7 +2361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2308,7 +2384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2354,7 +2430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2377,7 +2453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2423,7 +2499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2446,7 +2522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2492,7 +2568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2515,7 +2591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2561,7 +2637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2582,6 +2658,10 @@
       </c>
       <c r="G48" t="s">
         <v>13</v>
+      </c>
+      <c r="I48" t="e" cm="1" vm="4">
+        <f t="array" ref="I48">_xlfn._xlws.PY(4,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.65">
